--- a/word_explorer_word_list.xlsx
+++ b/word_explorer_word_list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="224">
   <si>
     <t>topic</t>
   </si>
@@ -131,9 +131,6 @@
     <t>rice.jpg</t>
   </si>
   <si>
-    <t>ant.png</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -696,6 +693,12 @@
   </si>
   <si>
     <t>12. If there is no image, show a "default" image (default.jpg)</t>
+  </si>
+  <si>
+    <t>ant.jpg</t>
+  </si>
+  <si>
+    <t>ant.mp3</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1051,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1067,16 +1070,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1085,16 +1088,16 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -1105,28 +1108,28 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>222</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -1146,13 +1149,13 @@
         <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -1172,13 +1175,13 @@
         <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -1198,13 +1201,13 @@
         <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -1224,13 +1227,13 @@
         <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -1250,13 +1253,13 @@
         <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -1267,22 +1270,22 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -1293,22 +1296,22 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1319,22 +1322,22 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1345,22 +1348,22 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1371,13 +1374,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>19</v>
@@ -1386,7 +1389,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -1403,16 +1406,16 @@
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1423,22 +1426,22 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1449,22 +1452,22 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1475,22 +1478,22 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1501,22 +1504,22 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1527,22 +1530,22 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1553,22 +1556,22 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1579,22 +1582,22 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1605,22 +1608,22 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1631,22 +1634,22 @@
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1657,22 +1660,22 @@
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -1683,22 +1686,22 @@
         <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -1709,22 +1712,22 @@
         <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -1735,22 +1738,22 @@
         <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -1761,22 +1764,22 @@
         <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -1787,22 +1790,22 @@
         <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -1813,22 +1816,22 @@
         <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -1839,22 +1842,22 @@
         <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -1865,22 +1868,22 @@
         <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -1888,19 +1891,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H32" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -1908,19 +1911,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -1928,19 +1931,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -1948,16 +1951,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -1965,16 +1968,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -1982,13 +1985,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -1996,13 +1999,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -2010,13 +2013,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -2024,13 +2027,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -2038,16 +2041,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2074,62 +2077,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2151,7 +2154,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2173,7 +2176,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/word_explorer_word_list.xlsx
+++ b/word_explorer_word_list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="227">
   <si>
     <t>topic</t>
   </si>
@@ -671,9 +671,6 @@
     <t>pillow.mp3</t>
   </si>
   <si>
-    <t>cell_phone.png</t>
-  </si>
-  <si>
     <t>6. The images types to be handled are jpg, png, bmp</t>
   </si>
   <si>
@@ -699,12 +696,24 @@
   </si>
   <si>
     <t>ant.mp3</t>
+  </si>
+  <si>
+    <t>cell_phone.jpg</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>cow.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1047,28 +1056,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1076,980 +1086,1226 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I40" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2063,76 +2319,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2145,14 +2401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -2167,14 +2423,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>172</v>
       </c>
